--- a/denki.xlsx
+++ b/denki.xlsx
@@ -253,13 +253,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>9月</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -320,6 +313,10 @@
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1gatu </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -717,7 +714,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,28 +725,28 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -1305,7 +1302,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3">
         <v>5888</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C3:C22)</f>
